--- a/FieldData/2015/xlsx_analysis/02-007-C Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/02-007-C Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0535BCE5A5C6FB47ED32704D85BC2034CC51CA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E38F06D-C369-4B3B-B29A-671F3F3C7882}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_0535BCE5A5C6FB47ED32704D85BC2034CC51CA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04380D10-CBBF-4E38-96C6-DA0150E875D1}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1725" windowWidth="17460" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="153">
   <si>
     <t>Species</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>PLOT</t>
-  </si>
-  <si>
-    <t>Common</t>
   </si>
   <si>
     <t>Scientific</t>
@@ -362,9 +359,6 @@
     <t>small spike-rush</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Juncus balticus</t>
   </si>
   <si>
@@ -569,6 +563,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1740,36 +1740,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1813,6 +1803,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1849,7 +1842,29 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3292,11 +3307,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IN140"/>
+  <dimension ref="A1:IN139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3304,7 +3319,7 @@
     <col min="1" max="1" width="8.5" style="39" customWidth="1"/>
     <col min="2" max="2" width="9" style="51" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" style="67" customWidth="1"/>
     <col min="5" max="5" width="18.3984375" style="39" customWidth="1"/>
     <col min="6" max="7" width="9" style="39" customWidth="1"/>
     <col min="8" max="8" width="10" style="39" customWidth="1"/>
@@ -3313,49 +3328,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="115" t="s">
+      <c r="H1" s="97" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" s="115" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="115" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>94</v>
       </c>
       <c r="C2" s="41">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>138</v>
+      <c r="D2" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="41">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>26</v>
@@ -3364,19 +3379,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>94</v>
       </c>
       <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>59</v>
+      <c r="D3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="41">
         <v>5</v>
@@ -3388,7 +3403,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>94</v>
@@ -3397,22 +3412,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="F4" s="41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>94</v>
@@ -3420,14 +3435,14 @@
       <c r="C5" s="41">
         <v>1</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>63</v>
+      <c r="D5" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="F5" s="41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>26</v>
@@ -3436,46 +3451,46 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>65</v>
-      </c>
       <c r="F6" s="41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>139</v>
+      <c r="D7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="F7" s="41">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>26</v>
@@ -3484,22 +3499,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>26</v>
@@ -3508,22 +3523,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="47" t="s">
         <v>70</v>
       </c>
+      <c r="E9" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="41">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>26</v>
@@ -3532,46 +3547,46 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" s="41">
         <v>1</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>72</v>
+      <c r="D10" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>140</v>
+      <c r="D11" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="F11" s="41">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>26</v>
@@ -3580,41 +3595,46 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>74</v>
+      <c r="D12" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="F12" s="41">
-        <v>13</v>
-      </c>
-      <c r="G12" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>138</v>
+      <c r="D13" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="41">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>26</v>
@@ -3623,22 +3643,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C14" s="41">
         <v>1</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="41">
-        <v>9</v>
+      <c r="E14" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="26">
+        <v>40</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>26</v>
@@ -3647,46 +3667,46 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="41">
         <v>1</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="41">
-        <v>1</v>
+      <c r="F15" s="26">
+        <v>3</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C16" s="41">
         <v>1</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="41">
-        <v>4</v>
+      <c r="D16" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="26">
+        <v>1</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>26</v>
@@ -3695,70 +3715,70 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C17" s="41">
         <v>1</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="41">
-        <v>12</v>
+      <c r="F17" s="26">
+        <v>90</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="41">
         <v>1</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="41">
+        <v>83</v>
+      </c>
+      <c r="F18" s="26">
         <v>1</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="41">
         <v>1</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="41">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>26</v>
@@ -3767,22 +3787,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="41">
         <v>1</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="41">
-        <v>1</v>
+      <c r="D20" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.5</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>26</v>
@@ -3791,22 +3811,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="41">
         <v>1</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="41">
-        <v>2</v>
+      <c r="D21" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="26">
+        <v>73</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>26</v>
@@ -3815,42 +3835,46 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="41">
         <v>1</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="41">
-        <v>15</v>
-      </c>
-      <c r="G22" s="26"/>
+      <c r="D22" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="26">
+        <v>3</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C23" s="41">
+        <v>2</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="41">
         <v>1</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="41">
-        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>26</v>
@@ -3859,22 +3883,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="41">
-        <v>1</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="F24" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>26</v>
@@ -3883,22 +3907,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" s="41">
-        <v>1</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="F25" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>26</v>
@@ -3907,22 +3931,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C26" s="41">
-        <v>1</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="F26" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>26</v>
@@ -3931,70 +3955,70 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27" s="41">
+        <v>2</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="41">
         <v>1</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="41">
-        <v>6</v>
-      </c>
       <c r="G27" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="F28" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C29" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="41">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="40">
+        <v>0.5</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>26</v>
@@ -4003,31 +4027,31 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>96</v>
       </c>
       <c r="C30" s="41">
         <v>1</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F30" s="41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>96</v>
@@ -4036,1574 +4060,1590 @@
         <v>1</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="41">
         <v>1</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>72</v>
+      <c r="D32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="F32" s="41">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>66</v>
+      <c r="D33" s="44" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="F33" s="41">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C34" s="41">
         <v>1</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="40" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F34" s="41">
-        <v>20</v>
-      </c>
-      <c r="G34" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C35" s="41">
         <v>1</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="41">
-        <v>48</v>
+      <c r="D35" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="26">
+        <v>8</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="41">
-        <v>1</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="41">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="40">
+        <v>0.5</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="41">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="40">
+        <v>0.5</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C38" s="41">
         <v>1</v>
       </c>
-      <c r="D38" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>72</v>
+      <c r="D38" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F38" s="41">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C39" s="41">
         <v>1</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F39" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C40" s="41">
         <v>1</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>142</v>
+      <c r="D40" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F40" s="41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C41" s="41">
         <v>1</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="41">
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C42" s="41">
         <v>1</v>
       </c>
-      <c r="D42" s="45" t="s">
-        <v>81</v>
+      <c r="D42" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F42" s="41">
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C43" s="41">
         <v>1</v>
       </c>
       <c r="D43" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>70</v>
-      </c>
       <c r="F43" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C44" s="41">
         <v>1</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="E44" s="40" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F44" s="41">
-        <v>14</v>
-      </c>
-      <c r="G44" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="41">
         <v>1</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F45" s="41">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" s="41">
         <v>1</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F46" s="41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" s="41">
         <v>1</v>
       </c>
-      <c r="D47" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>142</v>
+      <c r="D47" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F47" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" s="41">
         <v>1</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="F48" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" s="41">
         <v>1</v>
       </c>
-      <c r="D49" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>139</v>
+      <c r="D49" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="F49" s="41">
         <v>1</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" s="41">
         <v>1</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>72</v>
+      <c r="D50" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="F50" s="41">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="41">
         <v>1</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>70</v>
+      <c r="D51" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F51" s="41">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" s="41">
         <v>1</v>
       </c>
-      <c r="D52" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>82</v>
+      <c r="D52" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="F52" s="41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="41">
         <v>1</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>78</v>
+      <c r="D53" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F53" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="41">
         <v>1</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="40" t="s">
-        <v>74</v>
+      <c r="D54" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="F54" s="41">
-        <v>11</v>
-      </c>
-      <c r="G54" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" s="41">
         <v>1</v>
       </c>
-      <c r="D55" s="44" t="s">
-        <v>73</v>
+      <c r="D55" s="45" t="s">
+        <v>80</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="40">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="F55" s="41">
+        <v>1</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C56" s="41">
         <v>1</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>138</v>
+      <c r="D56" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>67</v>
       </c>
       <c r="F56" s="41">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="26">
-        <v>74</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C57" s="41">
         <v>1</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F57" s="41">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C58" s="41">
         <v>1</v>
       </c>
-      <c r="D58" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>63</v>
+      <c r="D58" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="F58" s="41">
         <v>2</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C59" s="41">
         <v>1</v>
       </c>
-      <c r="D59" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>139</v>
+      <c r="D59" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F59" s="41">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C60" s="41">
         <v>1</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="41" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C61" s="41">
         <v>1</v>
       </c>
-      <c r="D61" s="44" t="s">
-        <v>117</v>
+      <c r="D61" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="F61" s="41">
         <v>1</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C62" s="41">
         <v>1</v>
       </c>
-      <c r="D62" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>65</v>
+      <c r="D62" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="F62" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C63" s="41">
         <v>1</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="D63" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="40" t="s">
-        <v>70</v>
-      </c>
       <c r="F63" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C64" s="41">
         <v>1</v>
       </c>
-      <c r="D64" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>72</v>
+      <c r="D64" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F64" s="41">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C65" s="41">
         <v>1</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>106</v>
+      <c r="D65" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="F65" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C66" s="41">
         <v>1</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="F66" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C67" s="41">
         <v>1</v>
       </c>
-      <c r="D67" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>86</v>
+      <c r="D67" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="F67" s="41">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="26">
-        <v>123</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C68" s="41">
         <v>1</v>
       </c>
-      <c r="D68" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>138</v>
+      <c r="D68" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="117" t="s">
+        <v>77</v>
       </c>
       <c r="F68" s="41">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="26">
-        <v>106</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C69" s="41">
         <v>1</v>
       </c>
-      <c r="D69" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="41">
-        <v>10</v>
+      <c r="D69" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="40">
+        <v>0.5</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="41">
         <v>1</v>
       </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="40" t="s">
-        <v>89</v>
+      <c r="D70" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F70" s="41">
-        <v>0</v>
-      </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="26">
+        <v>74</v>
+      </c>
     </row>
     <row r="71" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="41">
         <v>1</v>
       </c>
-      <c r="D71" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>138</v>
+      <c r="D71" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="116" t="s">
+        <v>62</v>
       </c>
       <c r="F71" s="41">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="26">
-        <v>76</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="41">
         <v>1</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="F72" s="41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="26">
-        <v>155</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H72" s="26"/>
     </row>
     <row r="73" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="41">
         <v>1</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="F73" s="41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C74" s="41">
         <v>1</v>
       </c>
-      <c r="D74" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>86</v>
+      <c r="D74" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="F74" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C75" s="41">
         <v>1</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="F75" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H75" s="26"/>
     </row>
     <row r="76" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C76" s="41">
         <v>1</v>
       </c>
-      <c r="D76" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" s="26">
-        <v>40</v>
+      <c r="D76" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="41">
+        <v>0.5</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C77" s="41">
         <v>1</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="26">
+        <v>138</v>
+      </c>
+      <c r="F77" s="41">
         <v>1</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C78" s="41">
         <v>1</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="26">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="41">
+        <v>17</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H78" s="26">
+        <v>123</v>
+      </c>
     </row>
     <row r="79" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C79" s="41">
         <v>1</v>
       </c>
-      <c r="D79" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" s="26">
-        <v>1</v>
+      <c r="D79" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="41">
+        <v>80</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H79" s="26">
+        <v>106</v>
+      </c>
     </row>
     <row r="80" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="41">
         <v>1</v>
       </c>
-      <c r="D80" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E80" s="46" t="s">
+      <c r="D80" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="41">
+        <v>40</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="26">
         <v>76</v>
       </c>
-      <c r="F80" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="26"/>
     </row>
     <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="41">
         <v>1</v>
       </c>
-      <c r="D81" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="26">
-        <v>1</v>
+      <c r="D81" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="41">
+        <v>8</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H81" s="26">
+        <v>155</v>
+      </c>
     </row>
     <row r="82" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" s="41">
         <v>1</v>
       </c>
-      <c r="D82" s="56" t="s">
-        <v>64</v>
+      <c r="D82" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="E82" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="26">
+        <v>85</v>
+      </c>
+      <c r="F82" s="41">
         <v>3</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="41">
         <v>1</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" s="26">
+      <c r="D83" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="41">
         <v>1</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="41">
         <v>1</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="F84" s="26">
         <v>1</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C85" s="41">
         <v>1</v>
       </c>
-      <c r="D85" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E85" s="43" t="s">
-        <v>138</v>
+      <c r="D85" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="F85" s="26">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="26">
-        <v>55</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C86" s="41">
         <v>1</v>
       </c>
-      <c r="D86" s="47" t="s">
-        <v>71</v>
+      <c r="D86" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="E86" s="46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F86" s="26">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C87" s="41">
         <v>1</v>
       </c>
-      <c r="D87" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>61</v>
+      <c r="D87" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="F87" s="26">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C88" s="41">
         <v>1</v>
       </c>
-      <c r="D88" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="76" t="s">
-        <v>147</v>
+      <c r="D88" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="F88" s="26">
         <v>1</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C89" s="41">
         <v>1</v>
       </c>
-      <c r="D89" s="45" t="s">
-        <v>83</v>
+      <c r="D89" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F89" s="26">
         <v>1</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="41">
         <v>1</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>142</v>
+      <c r="D90" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="F90" s="26">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H90" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H90" s="26">
+        <v>55</v>
+      </c>
     </row>
     <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="41">
         <v>1</v>
       </c>
-      <c r="D91" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="46" t="s">
-        <v>114</v>
+      <c r="D91" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>145</v>
       </c>
       <c r="F91" s="26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="41">
         <v>1</v>
       </c>
-      <c r="D92" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>140</v>
+      <c r="D92" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="F92" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="26">
-        <v>47</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="41">
         <v>1</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="F93" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H93" s="26">
+        <v>47</v>
+      </c>
     </row>
     <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="41">
         <v>1</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F94" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="41">
         <v>1</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E95" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="F95" s="26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="41">
         <v>1</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F96" s="26">
         <v>55</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H96" s="26">
         <v>79</v>
@@ -5611,417 +5651,417 @@
     </row>
     <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="41">
         <v>1</v>
       </c>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="46" t="s">
         <v>81</v>
-      </c>
-      <c r="E97" s="46" t="s">
-        <v>82</v>
       </c>
       <c r="F97" s="26">
         <v>0.5</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="41">
         <v>1</v>
       </c>
-      <c r="D98" s="45" t="s">
-        <v>83</v>
+      <c r="D98" s="114" t="s">
+        <v>144</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="F98" s="26">
         <v>0.5</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="41">
         <v>1</v>
       </c>
-      <c r="D99" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" s="76" t="s">
-        <v>147</v>
+      <c r="D99" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="119" t="s">
+        <v>137</v>
       </c>
       <c r="F99" s="26">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="41">
         <v>1</v>
       </c>
-      <c r="D100" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>72</v>
+      <c r="D100" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="F100" s="26">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="41">
         <v>1</v>
       </c>
-      <c r="D101" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="46" t="s">
-        <v>139</v>
+      <c r="D101" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="F101" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="41">
         <v>1</v>
       </c>
-      <c r="D102" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" s="68" t="s">
-        <v>65</v>
+      <c r="D102" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="116" t="s">
+        <v>62</v>
       </c>
       <c r="F102" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="50" t="s">
         <v>92</v>
       </c>
+      <c r="B103" s="49" t="s">
+        <v>84</v>
+      </c>
       <c r="C103" s="41">
-        <v>1</v>
-      </c>
-      <c r="D103" s="44" t="s">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="D103" s="114" t="s">
+        <v>144</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F103" s="26">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="F103" s="40">
+        <v>0.5</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" s="50" t="s">
         <v>92</v>
       </c>
+      <c r="B104" s="49" t="s">
+        <v>84</v>
+      </c>
       <c r="C104" s="41">
-        <v>1</v>
-      </c>
-      <c r="D104" s="60" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" s="26">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="F104" s="40">
+        <v>0.5</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B105" s="50" t="s">
         <v>92</v>
       </c>
+      <c r="B105" s="49" t="s">
+        <v>84</v>
+      </c>
       <c r="C105" s="41">
-        <v>1</v>
-      </c>
-      <c r="D105" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F105" s="26">
         <v>2</v>
       </c>
+      <c r="D105" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="40">
+        <v>0.5</v>
+      </c>
       <c r="G105" s="26" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" s="50" t="s">
         <v>92</v>
       </c>
+      <c r="B106" s="49" t="s">
+        <v>84</v>
+      </c>
       <c r="C106" s="41">
-        <v>1</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F106" s="26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F106" s="41">
+        <v>2</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H106" s="26">
+        <v>45</v>
+      </c>
     </row>
     <row r="107" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107" s="41">
         <v>2</v>
       </c>
-      <c r="D107" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" s="40">
-        <v>0.5</v>
+      <c r="D107" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="41">
+        <v>1</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H107" s="26"/>
     </row>
     <row r="108" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="49" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C108" s="41">
         <v>2</v>
       </c>
-      <c r="D108" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E108" s="53" t="s">
-        <v>84</v>
+      <c r="D108" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="F108" s="41">
         <v>1</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="49" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C109" s="41">
         <v>2</v>
       </c>
-      <c r="D109" s="58" t="s">
+      <c r="D109" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E109" s="52" t="s">
         <v>81</v>
-      </c>
-      <c r="E109" s="53" t="s">
-        <v>82</v>
       </c>
       <c r="F109" s="40">
         <v>0.5</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" s="49" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C110" s="41">
         <v>2</v>
       </c>
-      <c r="D110" s="58" t="s">
+      <c r="D110" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E110" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F110" s="40">
-        <v>0.5</v>
+      <c r="F110" s="41">
+        <v>1</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C111" s="41">
         <v>2</v>
       </c>
-      <c r="D111" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F111" s="41">
-        <v>2</v>
+      <c r="D111" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F111" s="40">
+        <v>0.5</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="26">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112" s="49" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C112" s="41">
         <v>2</v>
       </c>
-      <c r="D112" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E112" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F112" s="41">
-        <v>1</v>
+      <c r="D112" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="40">
+        <v>0.5</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113" s="49" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C113" s="41">
         <v>2</v>
       </c>
-      <c r="D113" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F113" s="41">
-        <v>1</v>
+      <c r="D113" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="40">
+        <v>0.5</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H113" s="26"/>
     </row>
     <row r="114" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114" s="49" t="s">
         <v>99</v>
@@ -6029,638 +6069,609 @@
       <c r="C114" s="41">
         <v>2</v>
       </c>
-      <c r="D114" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F114" s="41">
-        <v>1</v>
+      <c r="D114" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F114" s="40">
+        <v>0.5</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" s="26"/>
     </row>
     <row r="115" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" s="41">
         <v>2</v>
       </c>
-      <c r="D115" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="53" t="s">
-        <v>84</v>
+      <c r="D115" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="F115" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H115" s="26"/>
     </row>
     <row r="116" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C116" s="41">
         <v>2</v>
       </c>
-      <c r="D116" s="58" t="s">
+      <c r="D116" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="52" t="s">
         <v>81</v>
-      </c>
-      <c r="E116" s="53" t="s">
-        <v>82</v>
       </c>
       <c r="F116" s="40">
         <v>0.5</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H116" s="26"/>
     </row>
     <row r="117" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C117" s="41">
         <v>2</v>
       </c>
-      <c r="D117" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F117" s="41">
-        <v>1</v>
+      <c r="D117" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F117" s="40">
+        <v>0.5</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H117" s="26"/>
     </row>
     <row r="118" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C118" s="41">
         <v>2</v>
       </c>
-      <c r="D118" s="44" t="s">
-        <v>60</v>
+      <c r="D118" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F118" s="40">
         <v>0.5</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H118" s="26"/>
     </row>
     <row r="119" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119" s="49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C119" s="41">
         <v>2</v>
       </c>
-      <c r="D119" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="76" t="s">
-        <v>147</v>
+      <c r="D119" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="70" t="s">
+        <v>145</v>
       </c>
       <c r="F119" s="40">
         <v>0.5</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H119" s="26"/>
     </row>
     <row r="120" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C120" s="41">
         <v>2</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F120" s="41">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="F120" s="40">
+        <v>0.5</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H120" s="26"/>
     </row>
     <row r="121" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C121" s="41">
         <v>2</v>
       </c>
-      <c r="D121" s="45" t="s">
-        <v>81</v>
+      <c r="D121" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F121" s="40">
         <v>0.5</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H121" s="26"/>
     </row>
     <row r="122" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C122" s="41">
         <v>2</v>
       </c>
-      <c r="D122" s="69" t="s">
+      <c r="D122" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E122" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F122" s="40">
-        <v>0.5</v>
+      <c r="F122" s="41">
+        <v>1</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H122" s="26"/>
     </row>
     <row r="123" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C123" s="41">
         <v>2</v>
       </c>
-      <c r="D123" s="62" t="s">
+      <c r="D123" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="64" t="s">
-        <v>108</v>
-      </c>
       <c r="F123" s="41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H123" s="26"/>
     </row>
     <row r="124" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C124" s="41">
         <v>2</v>
       </c>
-      <c r="D124" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="52" t="s">
-        <v>72</v>
+      <c r="D124" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E124" s="118" t="s">
+        <v>107</v>
       </c>
       <c r="F124" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H124" s="26"/>
     </row>
     <row r="125" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C125" s="41">
         <v>2</v>
       </c>
-      <c r="D125" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="E125" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F125" s="41">
-        <v>1</v>
+      <c r="D125" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="40">
+        <v>0.5</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H125" s="26"/>
     </row>
     <row r="126" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B126" s="49" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C126" s="41">
-        <v>2</v>
-      </c>
-      <c r="D126" s="44" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="D126" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="40">
-        <v>0.5</v>
+        <v>140</v>
+      </c>
+      <c r="F126" s="41">
+        <v>1</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H126" s="26"/>
     </row>
     <row r="127" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" s="49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C127" s="41">
-        <v>2</v>
-      </c>
-      <c r="D127" s="44" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F127" s="40">
-        <v>0.5</v>
+        <v>140</v>
+      </c>
+      <c r="F127" s="41">
+        <v>1</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128" s="49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C128" s="41">
-        <v>2</v>
-      </c>
-      <c r="D128" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" s="76" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="D128" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="70" t="s">
+        <v>140</v>
       </c>
       <c r="F128" s="41">
         <v>1</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H128" s="26"/>
     </row>
     <row r="129" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C129" s="41">
+        <v>1</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F129" s="41">
         <v>2</v>
       </c>
-      <c r="D129" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E129" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F129" s="41">
-        <v>3</v>
-      </c>
       <c r="G129" s="26" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="H129" s="26"/>
     </row>
     <row r="130" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" s="49" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C130" s="41">
-        <v>2</v>
-      </c>
-      <c r="D130" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E130" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F130" s="40">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D130" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" s="41">
+        <v>10</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H130" s="26"/>
     </row>
     <row r="131" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" s="49" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C131" s="41">
-        <v>2</v>
-      </c>
-      <c r="D131" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" s="40">
+        <v>1</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F131" s="26">
         <v>0.5</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H131" s="26"/>
     </row>
     <row r="132" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B132" s="49" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C132" s="41">
+        <v>1</v>
+      </c>
+      <c r="D132" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="26">
         <v>2</v>
       </c>
-      <c r="D132" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E132" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F132" s="40">
-        <v>0.5</v>
-      </c>
       <c r="G132" s="26" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H132" s="26"/>
     </row>
     <row r="133" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B133" s="49" t="s">
-        <v>102</v>
-      </c>
       <c r="C133" s="41">
-        <v>2</v>
-      </c>
-      <c r="D133" s="69"/>
+        <v>1</v>
+      </c>
+      <c r="D133" s="67"/>
       <c r="E133" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F133" s="40">
-        <v>100</v>
-      </c>
-      <c r="G133" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="F133" s="41">
+        <v>13</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="H133" s="26"/>
     </row>
     <row r="134" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C134" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" s="45"/>
-      <c r="E134" s="41"/>
+      <c r="E134" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="F134" s="41">
-        <v>0</v>
-      </c>
-      <c r="G134" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="H134" s="26"/>
     </row>
     <row r="135" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B135" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C135" s="41">
-        <v>2</v>
-      </c>
-      <c r="D135" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E135" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F135" s="40">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D135" s="81"/>
+      <c r="E135" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F135" s="41">
+        <v>20</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H135" s="26"/>
     </row>
     <row r="136" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B136" s="49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C136" s="41">
-        <v>2</v>
-      </c>
-      <c r="D136" s="45" t="s">
-        <v>83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D136" s="45"/>
       <c r="E136" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F136" s="40">
-        <v>0.5</v>
+        <v>73</v>
+      </c>
+      <c r="F136" s="41">
+        <v>14</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="H136" s="26"/>
     </row>
     <row r="137" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C137" s="41">
-        <v>2</v>
-      </c>
-      <c r="D137" s="45" t="s">
-        <v>81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D137" s="45"/>
       <c r="E137" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F137" s="40">
-        <v>0.5</v>
+        <v>73</v>
+      </c>
+      <c r="F137" s="41">
+        <v>11</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H137" s="26"/>
     </row>
     <row r="138" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B138" s="49" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C138" s="41">
-        <v>2</v>
-      </c>
-      <c r="D138" s="44" t="s">
-        <v>69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D138" s="47"/>
       <c r="E138" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F138" s="40">
-        <v>0.5</v>
+        <v>88</v>
+      </c>
+      <c r="F138" s="41">
+        <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H138" s="26"/>
     </row>
     <row r="139" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B139" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C139" s="41">
         <v>2</v>
       </c>
-      <c r="D139" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="F139" s="41">
-        <v>1</v>
+      <c r="D139" s="45"/>
+      <c r="E139" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F139" s="40">
+        <v>100</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H139" s="26"/>
     </row>
-    <row r="140" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B140" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C140" s="41">
-        <v>2</v>
-      </c>
-      <c r="D140" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E140" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F140" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H140" s="26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN140">
-    <sortCondition ref="C2:C140"/>
-    <sortCondition ref="B2:B140"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H139">
+    <sortCondition ref="G2:G139"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -6706,37 +6717,37 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="103" t="s">
+      <c r="E1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="103" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="103" t="s">
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="103" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="103" t="s">
+      <c r="S1" s="99"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="104"/>
-      <c r="W1" s="105"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="100"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6758,10 +6769,10 @@
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="79"/>
+      <c r="G2" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="73"/>
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6813,25 +6824,25 @@
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="80"/>
+        <v>121</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="74"/>
       <c r="I3" s="14"/>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J66" si="0">I3*200</f>
@@ -6873,30 +6884,30 @@
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="81"/>
+        <v>146</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="75"/>
       <c r="I4" s="20">
         <v>7</v>
       </c>
@@ -6945,15 +6956,15 @@
         <v>1.5</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
@@ -6962,13 +6973,13 @@
       <c r="E5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="81"/>
+      <c r="F5" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="75"/>
       <c r="I5" s="20">
         <v>1</v>
       </c>
@@ -7008,30 +7019,30 @@
       </c>
       <c r="W5" s="19"/>
       <c r="X5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="81"/>
+      <c r="F6" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="75"/>
       <c r="I6" s="4"/>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
@@ -7067,7 +7078,7 @@
         <v>1.5</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7077,8 +7088,8 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="4"/>
       <c r="J7" s="18">
         <f t="shared" si="0"/>
@@ -7118,8 +7129,8 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="4"/>
       <c r="J8" s="18">
         <f t="shared" si="0"/>
@@ -7159,8 +7170,8 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="4"/>
       <c r="J9" s="18">
         <f t="shared" si="0"/>
@@ -7200,8 +7211,8 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="4"/>
       <c r="J10" s="18">
         <f t="shared" si="0"/>
@@ -7241,8 +7252,8 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="4"/>
       <c r="J11" s="18">
         <f t="shared" si="0"/>
@@ -7282,8 +7293,8 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="4"/>
       <c r="J12" s="18">
         <f t="shared" si="0"/>
@@ -7323,8 +7334,8 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="4"/>
       <c r="J13" s="18">
         <f t="shared" si="0"/>
@@ -7364,8 +7375,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="4"/>
       <c r="J14" s="18">
         <f t="shared" si="0"/>
@@ -7405,8 +7416,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="4"/>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
@@ -7446,8 +7457,8 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="4"/>
       <c r="J16" s="18">
         <f t="shared" si="0"/>
@@ -7487,8 +7498,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="4"/>
       <c r="J17" s="18">
         <f t="shared" si="0"/>
@@ -7528,8 +7539,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="4"/>
       <c r="J18" s="18">
         <f t="shared" si="0"/>
@@ -7569,8 +7580,8 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="4"/>
       <c r="J19" s="18">
         <f t="shared" si="0"/>
@@ -7610,8 +7621,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="4"/>
       <c r="J20" s="18">
         <f t="shared" si="0"/>
@@ -7648,8 +7659,8 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="4"/>
       <c r="J21" s="18">
         <f t="shared" si="0"/>
@@ -7686,8 +7697,8 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="4"/>
       <c r="J22" s="18">
         <f t="shared" si="0"/>
@@ -7724,8 +7735,8 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="4"/>
       <c r="J23" s="18">
         <f t="shared" si="0"/>
@@ -7762,8 +7773,8 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="4"/>
       <c r="J24" s="18">
         <f t="shared" si="0"/>
@@ -7800,8 +7811,8 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="4"/>
       <c r="J25" s="18">
         <f t="shared" si="0"/>
@@ -7841,8 +7852,8 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="4"/>
       <c r="J26" s="18">
         <f t="shared" si="0"/>
@@ -7882,8 +7893,8 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="4"/>
       <c r="J27" s="18">
         <f t="shared" si="0"/>
@@ -7923,8 +7934,8 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="4"/>
       <c r="J28" s="18">
         <f t="shared" si="0"/>
@@ -7964,8 +7975,8 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="4"/>
       <c r="J29" s="18">
         <f t="shared" si="0"/>
@@ -8005,8 +8016,8 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="4"/>
       <c r="J30" s="18">
         <f t="shared" si="0"/>
@@ -8046,8 +8057,8 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="4"/>
       <c r="J31" s="18">
         <f t="shared" si="0"/>
@@ -8087,8 +8098,8 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="4"/>
       <c r="J32" s="18">
         <f t="shared" si="0"/>
@@ -8128,8 +8139,8 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="4"/>
       <c r="J33" s="18">
         <f t="shared" si="0"/>
@@ -8169,8 +8180,8 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="4"/>
       <c r="J34" s="18">
         <f t="shared" si="0"/>
@@ -8210,8 +8221,8 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="4"/>
       <c r="J35" s="18">
         <f t="shared" si="0"/>
@@ -8251,8 +8262,8 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="4"/>
       <c r="J36" s="18">
         <f t="shared" si="0"/>
@@ -8292,8 +8303,8 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="4"/>
       <c r="J37" s="18">
         <f t="shared" si="0"/>
@@ -8333,8 +8344,8 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="4"/>
       <c r="J38" s="18">
         <f t="shared" si="0"/>
@@ -8374,8 +8385,8 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
       <c r="I39" s="4"/>
       <c r="J39" s="18">
         <f t="shared" si="0"/>
@@ -8415,8 +8426,8 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
       <c r="I40" s="4"/>
       <c r="J40" s="18">
         <f t="shared" si="0"/>
@@ -8456,8 +8467,8 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
       <c r="I41" s="4"/>
       <c r="J41" s="18">
         <f t="shared" si="0"/>
@@ -8497,8 +8508,8 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="4"/>
       <c r="J42" s="18">
         <f t="shared" si="0"/>
@@ -8538,8 +8549,8 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="4"/>
       <c r="J43" s="18">
         <f t="shared" si="0"/>
@@ -8579,8 +8590,8 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
       <c r="I44" s="4"/>
       <c r="J44" s="18">
         <f t="shared" si="0"/>
@@ -8620,8 +8631,8 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
       <c r="I45" s="4"/>
       <c r="J45" s="18">
         <f t="shared" si="0"/>
@@ -8661,8 +8672,8 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
       <c r="I46" s="4"/>
       <c r="J46" s="18">
         <f t="shared" si="0"/>
@@ -8702,8 +8713,8 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
       <c r="I47" s="4"/>
       <c r="J47" s="18">
         <f t="shared" si="0"/>
@@ -8743,8 +8754,8 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
       <c r="I48" s="4"/>
       <c r="J48" s="18">
         <f t="shared" si="0"/>
@@ -8784,8 +8795,8 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="4"/>
       <c r="J49" s="18">
         <f t="shared" si="0"/>
@@ -8825,8 +8836,8 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
       <c r="I50" s="4"/>
       <c r="J50" s="18">
         <f t="shared" si="0"/>
@@ -8866,8 +8877,8 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="4"/>
       <c r="J51" s="18">
         <f t="shared" si="0"/>
@@ -8907,8 +8918,8 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
       <c r="I52" s="4"/>
       <c r="J52" s="18">
         <f t="shared" si="0"/>
@@ -8948,8 +8959,8 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="4"/>
       <c r="J53" s="18">
         <f t="shared" si="0"/>
@@ -8989,8 +9000,8 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
       <c r="I54" s="4"/>
       <c r="J54" s="18">
         <f t="shared" si="0"/>
@@ -9030,8 +9041,8 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="4"/>
       <c r="J55" s="18">
         <f t="shared" si="0"/>
@@ -9071,8 +9082,8 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
       <c r="I56" s="4"/>
       <c r="J56" s="18">
         <f t="shared" si="0"/>
@@ -9112,8 +9123,8 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
       <c r="I57" s="4"/>
       <c r="J57" s="18">
         <f t="shared" si="0"/>
@@ -9153,8 +9164,8 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
       <c r="I58" s="4"/>
       <c r="J58" s="18">
         <f t="shared" si="0"/>
@@ -9194,8 +9205,8 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
       <c r="I59" s="4"/>
       <c r="J59" s="18">
         <f t="shared" si="0"/>
@@ -9235,8 +9246,8 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
       <c r="I60" s="4"/>
       <c r="J60" s="18">
         <f t="shared" si="0"/>
@@ -9276,8 +9287,8 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="4"/>
       <c r="J61" s="18">
         <f t="shared" si="0"/>
@@ -9317,8 +9328,8 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
       <c r="I62" s="4"/>
       <c r="J62" s="18">
         <f t="shared" si="0"/>
@@ -9358,8 +9369,8 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
       <c r="I63" s="4"/>
       <c r="J63" s="18">
         <f t="shared" si="0"/>
@@ -9399,8 +9410,8 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
       <c r="I64" s="4"/>
       <c r="J64" s="18">
         <f t="shared" si="0"/>
@@ -9440,8 +9451,8 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
       <c r="I65" s="4"/>
       <c r="J65" s="18">
         <f t="shared" si="0"/>
@@ -9481,8 +9492,8 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="4"/>
       <c r="J66" s="18">
         <f t="shared" si="0"/>
@@ -19514,174 +19525,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="108" t="s">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="104"/>
+      <c r="G1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="90"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="27.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="98" t="s">
+      <c r="K2" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92" t="s">
+      <c r="A3" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="85">
+        <v>35</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="K3" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="89"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="91">
+      <c r="G4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="70">
+        <v>25</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="70">
         <v>35</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="95"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="87" t="s">
+      <c r="E6" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="76">
+      <c r="F6" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="79"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="70">
+        <v>5</v>
+      </c>
+      <c r="J6" s="82"/>
+      <c r="K6" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="76">
-        <v>35</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="76">
-        <v>5</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19721,14 +19732,14 @@
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="111"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19742,16 +19753,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>15</v>
@@ -22514,7 +22525,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -22523,85 +22534,85 @@
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
+      <c r="B2" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="36" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="36" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -22610,13 +22621,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>55</v>
       </c>
       <c r="E8" s="35"/>
     </row>
@@ -22629,7 +22640,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
